--- a/data/interpolation_parameters.xlsx
+++ b/data/interpolation_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ghnfarid\Projects\meteo-interp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFC72B-B76B-43D0-99A7-9D1C6BFB597B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63259E-9D49-4CE0-BDDA-D553AB239832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,22 +88,22 @@
     <t>apply_richter</t>
   </si>
   <si>
-    <t>isDWD</t>
-  </si>
-  <si>
     <t>power_parameter</t>
   </si>
   <si>
-    <t xml:space="preserve"> Starting_date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">End_date </t>
-  </si>
-  <si>
-    <t>SWAT or SWAT+</t>
-  </si>
-  <si>
     <t>radius_kl</t>
+  </si>
+  <si>
+    <t>swatplus</t>
+  </si>
+  <si>
+    <t>is_dwd</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
 </sst>
 </file>
@@ -480,25 +480,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/interpolation_parameters.xlsx
+++ b/data/interpolation_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ghnfarid\Projects\meteo-interp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63259E-9D49-4CE0-BDDA-D553AB239832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DAADA0-6E6B-4DDC-9F44-876D428E6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +463,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,13 +503,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -518,10 +518,10 @@
         <v>35</v>
       </c>
       <c r="F2" s="2">
-        <v>38353</v>
+        <v>43831</v>
       </c>
       <c r="G2" s="2">
-        <v>38399</v>
+        <v>43834</v>
       </c>
     </row>
   </sheetData>

--- a/data/interpolation_parameters.xlsx
+++ b/data/interpolation_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ghnfarid\Projects\meteo-interp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DAADA0-6E6B-4DDC-9F44-876D428E6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064E8ED0-FB1F-47F1-B24D-0C23B929DBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,55 +27,127 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7DF4AD57-E5B1-43A5-9B27-C8C13F61B01B}</author>
-    <author>tc={EAB6C01D-80DB-4248-B47C-07A44428420B}</author>
-    <author>tc={756DB413-9079-4C7E-9E33-5B0DB68027F4}</author>
-    <author>tc={5B6552B8-40B8-435B-9183-92ED98574CF9}</author>
-    <author>tc={14B8648A-F3EC-4781-83BE-F47587F870CE}</author>
+    <author>Farid Gholamin</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{7DF4AD57-E5B1-43A5-9B27-C8C13F61B01B}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{4ED56E26-8076-456C-BDC9-FB7CBF5B64A1}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1 for DWD
-0 for not DWD
-</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Farid Gholamin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+if 1: Weather stations will be gathered from DWD </t>
+        </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{EAB6C01D-80DB-4248-B47C-07A44428420B}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{C3259779-5C4D-43EB-A1C7-D62F11FCD665}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1 for applying
-0 for not applying</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Farid Gholamin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+if 1: richter correction will be applied </t>
+        </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{756DB413-9079-4C7E-9E33-5B0DB68027F4}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7FB28F1F-B4E1-406C-A484-8DE337423995}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1 for SWAT+ data format generation
-0 for SWAT data format generation</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Farid Gholamin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+if 1: output will be generated in SWAT+ format</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="3" shapeId="0" xr:uid="{5B6552B8-40B8-435B-9183-92ED98574CF9}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A93F5074-00F9-4829-A88C-E1461B3B2F67}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Parameter in IDW</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Farid Gholamin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+power parameter in IDW interpolation process</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="4" shapeId="0" xr:uid="{14B8648A-F3EC-4781-83BE-F47587F870CE}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{2E95FF13-D708-4DA0-B900-B701763E56A6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Interpolation search radius [km]</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Farid Gholamin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Interpolation search radius for climate variables except solar radiation [km]</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -113,13 +185,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,9 +253,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Farid Gholamin" id="{31EE8323-A344-485F-B9FD-CD0681ACB7D7}" userId="S::farid.gholamin@stud.uni-hannover.de::4e608844-38f7-44b7-81f0-25b56b57371e" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,36 +517,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-08-08T15:22:56.29" personId="{31EE8323-A344-485F-B9FD-CD0681ACB7D7}" id="{7DF4AD57-E5B1-43A5-9B27-C8C13F61B01B}">
-    <text xml:space="preserve">1 for DWD
-0 for not DWD
-</text>
-  </threadedComment>
-  <threadedComment ref="B2" dT="2023-08-08T14:43:43.38" personId="{31EE8323-A344-485F-B9FD-CD0681ACB7D7}" id="{EAB6C01D-80DB-4248-B47C-07A44428420B}">
-    <text>1 for applying
-0 for not applying</text>
-  </threadedComment>
-  <threadedComment ref="C2" dT="2023-10-19T12:55:44.47" personId="{31EE8323-A344-485F-B9FD-CD0681ACB7D7}" id="{756DB413-9079-4C7E-9E33-5B0DB68027F4}">
-    <text>1 for SWAT+ data format generation
-0 for SWAT data format generation</text>
-  </threadedComment>
-  <threadedComment ref="D2" dT="2023-08-08T19:13:50.78" personId="{31EE8323-A344-485F-B9FD-CD0681ACB7D7}" id="{5B6552B8-40B8-435B-9183-92ED98574CF9}">
-    <text>Parameter in IDW</text>
-  </threadedComment>
-  <threadedComment ref="E2" dT="2023-08-08T19:13:20.09" personId="{31EE8323-A344-485F-B9FD-CD0681ACB7D7}" id="{14B8648A-F3EC-4781-83BE-F47587F870CE}">
-    <text>Interpolation search radius [km]</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +562,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -515,16 +574,21 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>43831</v>
+        <v>38353</v>
       </c>
       <c r="G2" s="2">
-        <v>43834</v>
+        <v>43877</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 B2 C2" xr:uid="{81CC3AFA-4980-4AA4-9B85-EA83791A9859}">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/data/interpolation_parameters.xlsx
+++ b/data/interpolation_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ghnfarid\Projects\meteo-interp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064E8ED0-FB1F-47F1-B24D-0C23B929DBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A621ACC6-7079-486A-8856-51F3AB30392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,10 +250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,7 +518,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
